--- a/data_year/zb/国民经济核算/国内生产总值指数/国内生产总值指数(1978年=100).xlsx
+++ b/data_year/zb/国民经济核算/国内生产总值指数/国内生产总值指数(1978年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575.6758662963</v>
+        <v>1481.78395769851</v>
       </c>
       <c r="C2" t="n">
-        <v>760.1975121446</v>
+        <v>2073.0625039957</v>
       </c>
       <c r="D2" t="n">
-        <v>750.9939485646</v>
+        <v>2064.1833817007</v>
       </c>
       <c r="E2" t="n">
-        <v>275.4241804681</v>
+        <v>409.7005925772</v>
       </c>
       <c r="F2" t="n">
-        <v>958.6402337565</v>
+        <v>2783.9992197635</v>
       </c>
       <c r="G2" t="n">
-        <v>1072.5558973177</v>
+        <v>3199.3321450138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619.1489206634</v>
+        <v>1614.46016741067</v>
       </c>
       <c r="C3" t="n">
-        <v>823.5655506589</v>
+        <v>2271.0572247187</v>
       </c>
       <c r="D3" t="n">
-        <v>811.7764698708</v>
+        <v>2249.8919799959</v>
       </c>
       <c r="E3" t="n">
-        <v>282.690066564</v>
+        <v>426.8026803796</v>
       </c>
       <c r="F3" t="n">
-        <v>1056.9908581375</v>
+        <v>3048.148669316</v>
       </c>
       <c r="G3" t="n">
-        <v>1163.6295201857</v>
+        <v>3541.2983665006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>671.1876443159</v>
+        <v>1729.64421193479</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7869873737</v>
+        <v>2449.6471794721</v>
       </c>
       <c r="D4" t="n">
-        <v>889.652646809</v>
+        <v>2443.9574475871</v>
       </c>
       <c r="E4" t="n">
-        <v>290.3225472698</v>
+        <v>445.8660011663</v>
       </c>
       <c r="F4" t="n">
-        <v>1167.8230695068</v>
+        <v>3292.4303448605</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.7677378821</v>
+        <v>3837.4798275499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>733.9757492973</v>
+        <v>1851.59682678184</v>
       </c>
       <c r="C5" t="n">
-        <v>989.0074991185</v>
+        <v>2639.8904562937</v>
       </c>
       <c r="D5" t="n">
-        <v>982.9205057992</v>
+        <v>2618.4226828954</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2091617377</v>
+        <v>462.8410108002</v>
       </c>
       <c r="F5" t="n">
-        <v>1279.2311533969</v>
+        <v>3565.6746858027</v>
       </c>
       <c r="G5" t="n">
-        <v>1440.752271451</v>
+        <v>4143.9875647812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>803.4212961779</v>
+        <v>1976.59369057032</v>
       </c>
       <c r="C6" t="n">
-        <v>1089.0319729793</v>
+        <v>2835.92248236</v>
       </c>
       <c r="D6" t="n">
-        <v>1086.1739187031</v>
+        <v>2839.5228798828</v>
       </c>
       <c r="E6" t="n">
-        <v>315.353840413</v>
+        <v>481.5882389252</v>
       </c>
       <c r="F6" t="n">
-        <v>1408.6898121954</v>
+        <v>3863.1167407192</v>
       </c>
       <c r="G6" t="n">
-        <v>1601.3374006085</v>
+        <v>4440.5133060675</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>889.7197914462</v>
+        <v>2103.50556266842</v>
       </c>
       <c r="C7" t="n">
-        <v>1213.1227209784</v>
+        <v>3035.6091110882</v>
       </c>
       <c r="D7" t="n">
-        <v>1204.574116528</v>
+        <v>3021.12420613865</v>
       </c>
       <c r="E7" t="n">
-        <v>331.354624334</v>
+        <v>500.3630597988</v>
       </c>
       <c r="F7" t="n">
-        <v>1582.7749741951</v>
+        <v>4202.1712796005</v>
       </c>
       <c r="G7" t="n">
-        <v>1795.5538668029</v>
+        <v>4703.6920396017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>997.3163167494</v>
+        <v>2234.72677162222</v>
       </c>
       <c r="C8" t="n">
-        <v>1367.4435244805</v>
+        <v>3243.5107605796</v>
       </c>
       <c r="D8" t="n">
-        <v>1364.8884589338</v>
+        <v>3227.42778671986</v>
       </c>
       <c r="E8" t="n">
-        <v>347.1114588696</v>
+        <v>516.7640280106</v>
       </c>
       <c r="F8" t="n">
-        <v>1806.4877018284</v>
+        <v>4542.3824267922</v>
       </c>
       <c r="G8" t="n">
-        <v>2037.068350648</v>
+        <v>4987.3944281694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1133.3085795278</v>
+        <v>2375.55619344151</v>
       </c>
       <c r="C9" t="n">
-        <v>1562.0425107916</v>
+        <v>3468.8439658698</v>
       </c>
       <c r="D9" t="n">
-        <v>1565.5801564474</v>
+        <v>3464.29860571328</v>
       </c>
       <c r="E9" t="n">
-        <v>359.3424514504</v>
+        <v>537.2345549531</v>
       </c>
       <c r="F9" t="n">
-        <v>2096.8172824022</v>
+        <v>4918.0271569616</v>
       </c>
       <c r="G9" t="n">
-        <v>2343.6616872793</v>
+        <v>5280.0691721337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1236.329503816</v>
+        <v>2524.06885318935</v>
       </c>
       <c r="C10" t="n">
-        <v>1712.7902180873</v>
+        <v>3702.9830881698</v>
       </c>
       <c r="D10" t="n">
-        <v>1723.4395358952</v>
+        <v>3686.71881130701</v>
       </c>
       <c r="E10" t="n">
-        <v>377.8701650053</v>
+        <v>555.9459912819</v>
       </c>
       <c r="F10" t="n">
-        <v>2316.4765189331</v>
+        <v>5310.6583480456</v>
       </c>
       <c r="G10" t="n">
-        <v>2574.2543241413</v>
+        <v>5585.9122593244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1345.8181977769</v>
+        <v>2664.79368959606</v>
       </c>
       <c r="C11" t="n">
-        <v>1873.7706713512</v>
+        <v>3923.32912474348</v>
       </c>
       <c r="D11" t="n">
-        <v>1870.6369799603</v>
+        <v>3912.33681502289</v>
       </c>
       <c r="E11" t="n">
-        <v>392.9941379196</v>
+        <v>573.051301730205</v>
       </c>
       <c r="F11" t="n">
-        <v>2538.5475286267</v>
+        <v>5692.02204626978</v>
       </c>
       <c r="G11" t="n">
-        <v>2839.2173014962</v>
+        <v>5858.20428911231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1481.7839576985</v>
+        <v>2717.97119436732</v>
       </c>
       <c r="C12" t="n">
-        <v>2073.0625039957</v>
+        <v>4011.15827537261</v>
       </c>
       <c r="D12" t="n">
-        <v>2064.1833817007</v>
+        <v>3979.04070116392</v>
       </c>
       <c r="E12" t="n">
-        <v>409.7005925772</v>
+        <v>590.994022566519</v>
       </c>
       <c r="F12" t="n">
-        <v>2783.9992197635</v>
+        <v>5802.85267032334</v>
       </c>
       <c r="G12" t="n">
-        <v>3199.3321450138</v>
+        <v>6002.56513920516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1614.46016741065</v>
+        <v>2945</v>
       </c>
       <c r="C13" t="n">
-        <v>2271.0572247187</v>
+        <v>4350</v>
       </c>
       <c r="D13" t="n">
-        <v>2249.8919799959</v>
+        <v>4319.7</v>
       </c>
       <c r="E13" t="n">
-        <v>426.8026803796</v>
+        <v>632.8</v>
       </c>
       <c r="F13" t="n">
-        <v>3048.148669316</v>
+        <v>6295.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3541.2983665006</v>
+        <v>6523.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1729.64421193475</v>
+        <v>3033.4</v>
       </c>
       <c r="C14" t="n">
-        <v>2449.6471794721</v>
+        <v>4480.1</v>
       </c>
       <c r="D14" t="n">
-        <v>2443.9574475871</v>
+        <v>4432.1</v>
       </c>
       <c r="E14" t="n">
-        <v>445.8660011663</v>
+        <v>659</v>
       </c>
       <c r="F14" t="n">
-        <v>3292.4303448605</v>
+        <v>6439.7</v>
       </c>
       <c r="G14" t="n">
-        <v>3837.4798275499</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1851.59682678182</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2639.8904562937</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2618.4226828954</v>
-      </c>
-      <c r="E15" t="n">
-        <v>462.8410108002</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3565.6746858027</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4143.9875647812</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1976.5936905703</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2835.92248236</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2839.5228798828</v>
-      </c>
-      <c r="E16" t="n">
-        <v>481.5882389252</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3863.1167407192</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4440.5133060675</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2103.50556266841</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3035.6091110882</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3021.12420613865</v>
-      </c>
-      <c r="E17" t="n">
-        <v>500.3630597988</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4202.1712796005</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4703.6920396017</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2234.7267716222</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3243.5107605796</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3227.42778671986</v>
-      </c>
-      <c r="E18" t="n">
-        <v>516.7640280106</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4542.3824267922</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4987.3944281694</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2375.55619344148</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3468.8439658698</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3464.29860571328</v>
-      </c>
-      <c r="E19" t="n">
-        <v>537.2345549531</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4918.0271569616</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5280.0691721337</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2524.06885318931</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3702.9830881698</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3686.71881130701</v>
-      </c>
-      <c r="E20" t="n">
-        <v>555.9459912819</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5310.6583480456</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5585.9122593244</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2664.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3923.32912474348</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3912.33681502289</v>
-      </c>
-      <c r="E21" t="n">
-        <v>573.051301730205</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5692.02204626978</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5858.20428911231</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2718</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4011.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3982.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>591</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5802.9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6002.6</v>
+        <v>6768.3</v>
       </c>
     </row>
   </sheetData>
